--- a/data/nb_data_clean_cayman.xlsx
+++ b/data/nb_data_clean_cayman.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="259">
   <si>
     <t>modeltype</t>
   </si>
@@ -718,6 +718,19 @@
   </si>
   <si>
     <t>APX839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">■ Type：
+   Lithium-ion polymer battery, fast charging Optional
+■ Capacity：
+   14inch：1* 80Wh, 11.55V/xxxmah, 4S1P, Smart battery, fast charging  
+   16inch ：1* 99Wh  
+   *Battery charging up to 80% in less than 1 hour
+■ Certification：
+   CB，MSDS，UN38.3，Airflight transportation report
+■ Life：
+   &gt;10 Hours battery life via MSFT CTS testing (TBD)
+</t>
   </si>
   <si>
     <t>■ Module：
@@ -1922,7 +1935,7 @@
   <cols>
     <col min="1" max="1" style="8" width="14.862142857142858" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="44.71928571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="16.005" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="9" width="28.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="9" width="12.290714285714287" customWidth="1" bestFit="1"/>
@@ -1958,7 +1971,7 @@
     <col min="36" max="36" style="9" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="58.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2861,10 +2874,10 @@
         <v>122</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>144</v>
@@ -2919,10 +2932,10 @@
         <v>839</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>110</v>
@@ -2967,16 +2980,16 @@
         <v>122</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>144</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V10" s="5" t="s">
         <v>127</v>
@@ -3025,100 +3038,100 @@
         <v>819</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>117</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V11" s="5" t="s">
         <v>127</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA11" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD11" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG11" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH11" s="6" t="s">
         <v>38</v>
@@ -3131,100 +3144,100 @@
         <v>819</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>117</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V12" s="5" t="s">
         <v>127</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA12" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AH12" s="6" t="s">
         <v>38</v>
@@ -3237,100 +3250,100 @@
         <v>819</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>117</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>127</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA13" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG13" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AH13" s="6" t="s">
         <v>38</v>
@@ -3343,100 +3356,100 @@
         <v>819</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>117</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="V14" s="5" t="s">
         <v>127</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AD14" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AH14" s="6" t="s">
         <v>38</v>
@@ -3449,100 +3462,100 @@
         <v>819</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>117</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="V15" s="5" t="s">
         <v>127</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA15" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG15" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AH15" s="6" t="s">
         <v>38</v>
@@ -3555,100 +3568,100 @@
         <v>819</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>117</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>127</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA16" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AH16" s="6" t="s">
         <v>38</v>
